--- a/schema.xlsx
+++ b/schema.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <x:si>
     <x:t>商品SKU</x:t>
   </x:si>
@@ -429,6 +429,9 @@
   </x:si>
   <x:si>
     <x:t>SitePageCode =&gt; Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SitePageKind =&gt; Kind</x:t>
   </x:si>
   <x:si>
     <x:t>サイト設定</x:t>
@@ -801,7 +804,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A12:C15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A12:C16" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1387,10 +1390,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>176</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>7</x:v>
@@ -1470,18 +1473,18 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="4" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="4" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1497,31 +1500,31 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="4" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1558,7 +1561,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F14"/>
+  <x:dimension ref="A1:F15"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1690,6 +1693,11 @@
       </x:c>
       <x:c r="C14" s="1" t="s">
         <x:v>132</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="C15" s="1" t="s">
+        <x:v>133</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1728,12 +1736,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1758,10 +1766,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1773,10 +1781,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>37</x:v>
@@ -1788,10 +1796,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>37</x:v>
@@ -1844,12 +1852,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>142</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1889,23 +1897,23 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -1928,10 +1936,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>37</x:v>
@@ -1943,10 +1951,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>37</x:v>
@@ -2044,7 +2052,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>53</x:v>
@@ -2059,10 +2067,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -2072,7 +2080,7 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>22</x:v>
@@ -2190,10 +2198,10 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>29</x:v>
@@ -2260,7 +2268,7 @@
         <x:v>129</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
         <x:v>90</x:v>
@@ -2268,13 +2276,13 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="C25" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2318,7 +2326,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2371,10 +2379,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -2386,10 +2394,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>14</x:v>
@@ -2442,12 +2450,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2472,10 +2480,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>26</x:v>
@@ -2541,12 +2549,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>164</x:v>
+        <x:v>165</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>166</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2586,7 +2594,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>53</x:v>
@@ -2614,10 +2622,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>37</x:v>
@@ -2629,10 +2637,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>55</x:v>
@@ -2644,10 +2652,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>44</x:v>
@@ -2739,10 +2747,10 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="4" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>90</x:v>
@@ -2783,12 +2791,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <x:si>
     <x:t>商品SKU</x:t>
   </x:si>
@@ -419,88 +419,82 @@
     <x:t>SitePageCode</x:t>
   </x:si>
   <x:si>
+    <x:t>SitePages</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SitePageCode =&gt; Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイト設定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SiteConfigs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>キー</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConfigKey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>値</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConfigValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>メモ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Memo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイトパーツ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SiteParts</x:t>
+  </x:si>
+  <x:si>
+    <x:t>パターン</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URLパラメータ(nvarchar(200))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>表示位置</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HTML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ページ種別</x:t>
+  </x:si>
+  <x:si>
+    <x:t>優先順位</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ページ名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>発行日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PublishDate</x:t>
+  </x:si>
+  <x:si>
     <x:t>サイトページ種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageKind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageCode =&gt; Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageKind =&gt; Kind</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイト設定</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SiteConfigs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>キー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConfigKey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>値</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConfigValue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>メモ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Memo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイトパーツ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SiteParts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>パターン</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URLパラメータ(nvarchar(200))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>表示位置</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Position</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HTML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ページ種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>優先順位</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ページ名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>発行日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PublishDate</x:t>
   </x:si>
   <x:si>
     <x:t>SitePageKinds</x:t>
@@ -790,7 +784,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A4:F9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A4:F8" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -804,7 +798,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A12:C16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A11:C14" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1390,10 +1384,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>176</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>177</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>7</x:v>
@@ -1473,18 +1467,18 @@
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="4" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="4" t="s">
-        <x:v>142</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
@@ -1492,39 +1486,39 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="4" t="s">
-        <x:v>165</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1561,7 +1555,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F15"/>
+  <x:dimension ref="A1:F13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1636,74 +1630,54 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s"/>
     </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
-      <x:c r="A12" s="1" t="s">
-        <x:v>45</x:v>
+      <x:c r="A12" s="4" t="s">
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>97</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="4" t="s">
-        <x:v>127</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>131</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>132</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="C15" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A13" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A14" location="'サイトページ'!A1" display="サイトページ"/>
+    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
+    <x:hyperlink ref="A13" location="'サイトページ'!A1" display="サイトページ"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -1736,12 +1710,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>134</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1766,10 +1740,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1781,10 +1755,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>37</x:v>
@@ -1796,10 +1770,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>37</x:v>
@@ -1852,12 +1826,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>139</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1897,23 +1871,23 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -1936,10 +1910,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>37</x:v>
@@ -1951,10 +1925,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>37</x:v>
@@ -2012,7 +1986,7 @@
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2052,7 +2026,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>53</x:v>
@@ -2060,17 +2034,15 @@
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -2080,7 +2052,7 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>154</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>22</x:v>
@@ -2198,10 +2170,10 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>156</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>29</x:v>
@@ -2265,10 +2237,10 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="4" t="s">
-        <x:v>129</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
         <x:v>90</x:v>
@@ -2276,13 +2248,13 @@
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="4" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="B25" s="1" t="s">
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="C25" s="1" t="s">
         <x:v>158</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>160</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2321,12 +2293,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>154</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>155</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2379,10 +2351,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -2394,10 +2366,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>14</x:v>
@@ -2450,12 +2422,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>158</x:v>
+        <x:v>156</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>157</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2480,10 +2452,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>26</x:v>
@@ -2549,12 +2521,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>165</x:v>
+        <x:v>163</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>164</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2594,7 +2566,7 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
         <x:v>53</x:v>
@@ -2622,10 +2594,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>37</x:v>
@@ -2637,10 +2609,10 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>55</x:v>
@@ -2652,10 +2624,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>172</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>44</x:v>
@@ -2747,10 +2719,10 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="4" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>90</x:v>
@@ -2791,12 +2763,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>172</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>173</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -7,22 +7,23 @@
   </x:bookViews>
   <x:sheets>
     <x:sheet name="目次" sheetId="2" r:id="rId2"/>
-    <x:sheet name="商品SKU" sheetId="3" r:id="rId3"/>
-    <x:sheet name="商品ページ" sheetId="4" r:id="rId4"/>
-    <x:sheet name="SKU関連" sheetId="5" r:id="rId5"/>
-    <x:sheet name="商品画像" sheetId="6" r:id="rId6"/>
-    <x:sheet name="商品分類" sheetId="7" r:id="rId7"/>
-    <x:sheet name="商品タグ" sheetId="8" r:id="rId8"/>
-    <x:sheet name="タグ関連" sheetId="9" r:id="rId9"/>
-    <x:sheet name="関連商品" sheetId="10" r:id="rId10"/>
-    <x:sheet name="関連ページ" sheetId="11" r:id="rId11"/>
-    <x:sheet name="サイト設定" sheetId="12" r:id="rId12"/>
-    <x:sheet name="サイトパーツ" sheetId="13" r:id="rId13"/>
-    <x:sheet name="サイトページ" sheetId="14" r:id="rId14"/>
-    <x:sheet name="サイトページ種別" sheetId="15" r:id="rId15"/>
-    <x:sheet name="サイトページ優先順位" sheetId="16" r:id="rId16"/>
-    <x:sheet name="バナー" sheetId="17" r:id="rId17"/>
-    <x:sheet name="バナー種別" sheetId="18" r:id="rId18"/>
+    <x:sheet name="EC商品" sheetId="3" r:id="rId3"/>
+    <x:sheet name="商品SKU" sheetId="4" r:id="rId4"/>
+    <x:sheet name="商品ページ" sheetId="5" r:id="rId5"/>
+    <x:sheet name="SKU関連" sheetId="6" r:id="rId6"/>
+    <x:sheet name="商品画像" sheetId="7" r:id="rId7"/>
+    <x:sheet name="商品分類" sheetId="8" r:id="rId8"/>
+    <x:sheet name="商品タグ" sheetId="9" r:id="rId9"/>
+    <x:sheet name="タグ関連" sheetId="10" r:id="rId10"/>
+    <x:sheet name="関連商品" sheetId="11" r:id="rId11"/>
+    <x:sheet name="関連ページ" sheetId="12" r:id="rId12"/>
+    <x:sheet name="サイト設定" sheetId="13" r:id="rId13"/>
+    <x:sheet name="サイトパーツ" sheetId="14" r:id="rId14"/>
+    <x:sheet name="サイトページ" sheetId="15" r:id="rId15"/>
+    <x:sheet name="サイトページ種別" sheetId="16" r:id="rId16"/>
+    <x:sheet name="サイトページ優先順位" sheetId="17" r:id="rId17"/>
+    <x:sheet name="バナー" sheetId="18" r:id="rId18"/>
+    <x:sheet name="バナー種別" sheetId="19" r:id="rId19"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -30,111 +31,126 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+  <x:si>
+    <x:t>EC商品</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Products</x:t>
+  </x:si>
+  <x:si>
+    <x:t>フィールド名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>カラム名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>型</x:t>
+  </x:si>
+  <x:si>
+    <x:t>主キー</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NULL可</x:t>
+  </x:si>
+  <x:si>
+    <x:t>備考</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部商品ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Id</x:t>
+  </x:si>
+  <x:si>
+    <x:t>内部商品No(int)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y</x:t>
+  </x:si>
+  <x:si>
+    <x:t>外部ID1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalId1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ショートテキスト(nvarchar(32))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>外部ID2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalId2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>外部ID3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalId3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>外部ID4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalId4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>管理名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Name</x:t>
+  </x:si>
+  <x:si>
+    <x:t>名称(nvarchar(128))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>販売ステータス</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SalesStatus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>整数(int)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>販売開始日時</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SalesStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>日付時刻(datetime)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>販売終了日時</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SalesEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>在庫0</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Stockout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ONOFF(bit)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>関連テーブル名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>関連スキーマ名</x:t>
+  </x:si>
+  <x:si>
+    <x:t>関連カラム</x:t>
+  </x:si>
   <x:si>
     <x:t>商品SKU</x:t>
   </x:si>
   <x:si>
-    <x:t>Products</x:t>
-  </x:si>
-  <x:si>
-    <x:t>フィールド名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>カラム名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>型</x:t>
-  </x:si>
-  <x:si>
-    <x:t>主キー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NULL可</x:t>
-  </x:si>
-  <x:si>
-    <x:t>備考</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内部商品ID</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Id</x:t>
-  </x:si>
-  <x:si>
-    <x:t>内部商品No(int)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Y</x:t>
-  </x:si>
-  <x:si>
-    <x:t>外部ID1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExternalId1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ショートテキスト(nvarchar(32))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>外部ID2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExternalId2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>外部ID3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExternalId3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>外部ID4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ExternalId4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>管理名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Name</x:t>
-  </x:si>
-  <x:si>
-    <x:t>名称(nvarchar(128))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>販売ステータス</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SalesStatus</x:t>
-  </x:si>
-  <x:si>
-    <x:t>整数(int)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>販売開始日時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SalesStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>日付時刻(datetime)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>販売終了日時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SalesEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>在庫0</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stockout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ONOFF(bit)</x:t>
+    <x:t>ProductDetails</x:t>
   </x:si>
   <x:si>
     <x:t>表示名</x:t>
@@ -146,18 +162,18 @@
     <x:t>フリーテキスト(nvarchar(MAX))</x:t>
   </x:si>
   <x:si>
+    <x:t>カラー</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Color</x:t>
+  </x:si>
+  <x:si>
     <x:t>サイズ</x:t>
   </x:si>
   <x:si>
     <x:t>Size</x:t>
   </x:si>
   <x:si>
-    <x:t>カラー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Color</x:t>
-  </x:si>
-  <x:si>
     <x:t>アイコン</x:t>
   </x:si>
   <x:si>
@@ -167,15 +183,6 @@
     <x:t>URL(nvarchar(256))</x:t>
   </x:si>
   <x:si>
-    <x:t>関連テーブル名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関連スキーマ名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関連カラム</x:t>
-  </x:si>
-  <x:si>
     <x:t>商品ページ</x:t>
   </x:si>
   <x:si>
@@ -302,9 +309,6 @@
     <x:t>ProductKinds</x:t>
   </x:si>
   <x:si>
-    <x:t>Kind =&gt; Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>SKU関連</x:t>
   </x:si>
   <x:si>
@@ -323,9 +327,6 @@
     <x:t>DisplayOrder</x:t>
   </x:si>
   <x:si>
-    <x:t>ProductPageCode =&gt; Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>商品画像</x:t>
   </x:si>
   <x:si>
@@ -386,9 +387,6 @@
     <x:t>ProductTagCode</x:t>
   </x:si>
   <x:si>
-    <x:t>ProductTagCode =&gt; Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>関連商品</x:t>
   </x:si>
   <x:si>
@@ -401,12 +399,6 @@
     <x:t>RelateCode</x:t>
   </x:si>
   <x:si>
-    <x:t>Code =&gt; Code</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RelateCode =&gt; Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>関連ページ</x:t>
   </x:si>
   <x:si>
@@ -422,9 +414,6 @@
     <x:t>SitePages</x:t>
   </x:si>
   <x:si>
-    <x:t>SitePageCode =&gt; Code</x:t>
-  </x:si>
-  <x:si>
     <x:t>サイト設定</x:t>
   </x:si>
   <x:si>
@@ -504,9 +493,6 @@
   </x:si>
   <x:si>
     <x:t>SitePagePriorities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Priority =&gt; Priority</x:t>
   </x:si>
   <x:si>
     <x:t>ルート名</x:t>
@@ -672,8 +658,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C18" totalsRowShown="0">
-  <x:autoFilter ref="A1:C18"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
+  <x:autoFilter ref="A1:C19"/>
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="テーブル名"/>
     <x:tableColumn id="2" name="スキーマ名"/>
@@ -684,7 +670,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15" displayName="Table15" ref="A4:F19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15" displayName="Table15" ref="A4:F10" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -698,7 +684,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table24" displayName="Table24" ref="A22:C23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table24" displayName="Table24" ref="A13:C15" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -709,7 +695,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16" displayName="Table16" ref="A4:F20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16" displayName="Table16" ref="A4:F19" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -723,7 +709,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table25" displayName="Table25" ref="A23:C24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table25" displayName="Table25" ref="A22:C23" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -734,7 +720,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table17" displayName="Table17" ref="A4:F8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table17" displayName="Table17" ref="A4:F20" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -748,7 +734,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table26" displayName="Table26" ref="A11:C14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table26" displayName="Table26" ref="A23:C24" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -809,7 +795,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A4:F19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table11" displayName="Table11" ref="A4:F15" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -837,7 +823,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table29" displayName="Table29" ref="A11:C12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table29" displayName="Table29" ref="A11:C14" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -848,7 +834,7 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table111" displayName="Table111" ref="A4:F11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table111" displayName="Table111" ref="A4:F8" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -862,7 +848,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table210" displayName="Table210" ref="A14:C15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table210" displayName="Table210" ref="A11:C12" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -873,7 +859,7 @@
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table112" displayName="Table112" ref="A4:F20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="24" name="Table112" displayName="Table112" ref="A4:F11" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -887,7 +873,7 @@
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table211" displayName="Table211" ref="A23:C26" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="25" name="Table211" displayName="Table211" ref="A14:C15" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -898,7 +884,7 @@
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table113" displayName="Table113" ref="A4:F9" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table113" displayName="Table113" ref="A4:F20" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -912,7 +898,7 @@
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table212" displayName="Table212" ref="A12:C13" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table212" displayName="Table212" ref="A23:C26" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -923,7 +909,7 @@
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table114" displayName="Table114" ref="A4:F7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table114" displayName="Table114" ref="A4:F9" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -937,7 +923,7 @@
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table213" displayName="Table213" ref="A10:C11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table213" displayName="Table213" ref="A12:C13" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -948,7 +934,7 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="A22:C23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="A18:C19" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -959,7 +945,7 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table115" displayName="Table115" ref="A4:F16" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table115" displayName="Table115" ref="A4:F7" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -973,7 +959,7 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table214" displayName="Table214" ref="A19:C21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table214" displayName="Table214" ref="A10:C11" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -984,7 +970,7 @@
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table116" displayName="Table116" ref="A4:F7" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table116" displayName="Table116" ref="A4:F16" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -998,7 +984,7 @@
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table215" displayName="Table215" ref="A10:C11" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table215" displayName="Table215" ref="A19:C21" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1008,8 +994,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table12" displayName="Table12" ref="A4:F25" totalsRowShown="0">
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table117" displayName="Table117" ref="A4:F7" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -1022,8 +1008,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table21" displayName="Table21" ref="A28:C30" totalsRowShown="0">
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table216" displayName="Table216" ref="A10:C11" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1033,8 +1019,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13" displayName="Table13" ref="A4:F8" totalsRowShown="0">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table12" displayName="Table12" ref="A4:F10" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -1047,8 +1033,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table22" displayName="Table22" ref="A11:C13" totalsRowShown="0">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table21" displayName="Table21" ref="A13:C14" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1058,8 +1044,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table14" displayName="Table14" ref="A4:F10" totalsRowShown="0">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13" displayName="Table13" ref="A4:F25" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -1072,8 +1058,33 @@
 </x:table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table22" displayName="Table22" ref="A28:C30" totalsRowShown="0">
+  <x:tableColumns count="3">
+    <x:tableColumn id="1" name="関連テーブル名"/>
+    <x:tableColumn id="2" name="関連スキーマ名"/>
+    <x:tableColumn id="3" name="関連カラム"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table14" displayName="Table14" ref="A4:F8" totalsRowShown="0">
+  <x:tableColumns count="6">
+    <x:tableColumn id="1" name="フィールド名"/>
+    <x:tableColumn id="2" name="カラム名"/>
+    <x:tableColumn id="3" name="型"/>
+    <x:tableColumn id="4" name="主キー"/>
+    <x:tableColumn id="5" name="NULL可"/>
+    <x:tableColumn id="6" name="備考"/>
+  </x:tableColumns>
+  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</x:table>
+</file>
+
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table23" displayName="Table23" ref="A13:C15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table23" displayName="Table23" ref="A11:C14" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1371,7 +1382,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C17"/>
+  <x:dimension ref="A1:C18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1384,10 +1395,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>174</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>175</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>7</x:v>
@@ -1403,149 +1414,158 @@
     </x:row>
     <x:row r="3" spans="1:3">
       <x:c r="A3" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B3" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:3">
       <x:c r="A4" s="4" t="s">
-        <x:v>91</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B4" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>99</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="4" t="s">
-        <x:v>114</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>111</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="4" t="s">
-        <x:v>119</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="4" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="4" t="s">
-        <x:v>131</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="4" t="s">
-        <x:v>139</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:3">
       <x:c r="A14" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:3">
       <x:c r="A15" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:3">
       <x:c r="A16" s="4" t="s">
-        <x:v>163</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:3">
       <x:c r="A17" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>159</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:3">
+      <x:c r="A18" s="4" t="s">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B18" s="1" t="s">
+        <x:v>168</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A2" location="'商品SKU'!A1" display="商品SKU"/>
-    <x:hyperlink ref="A3" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A4" location="'SKU関連'!A1" display="SKU関連"/>
-    <x:hyperlink ref="A5" location="'商品画像'!A1" display="商品画像"/>
-    <x:hyperlink ref="A6" location="'商品分類'!A1" display="商品分類"/>
-    <x:hyperlink ref="A7" location="'商品タグ'!A1" display="商品タグ"/>
-    <x:hyperlink ref="A8" location="'タグ関連'!A1" display="タグ関連"/>
-    <x:hyperlink ref="A9" location="'関連商品'!A1" display="関連商品"/>
-    <x:hyperlink ref="A10" location="'関連ページ'!A1" display="関連ページ"/>
-    <x:hyperlink ref="A11" location="'サイト設定'!A1" display="サイト設定"/>
-    <x:hyperlink ref="A12" location="'サイトパーツ'!A1" display="サイトパーツ"/>
-    <x:hyperlink ref="A13" location="'サイトページ'!A1" display="サイトページ"/>
-    <x:hyperlink ref="A14" location="'サイトページ種別'!A1" display="サイトページ種別"/>
-    <x:hyperlink ref="A15" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
-    <x:hyperlink ref="A16" location="'バナー'!A1" display="バナー"/>
-    <x:hyperlink ref="A17" location="'バナー種別'!A1" display="バナー種別"/>
+    <x:hyperlink ref="A2" location="'EC商品'!A1" display="EC商品"/>
+    <x:hyperlink ref="A3" location="'商品SKU'!A1" display="商品SKU"/>
+    <x:hyperlink ref="A4" location="'商品ページ'!A1" display="商品ページ"/>
+    <x:hyperlink ref="A5" location="'SKU関連'!A1" display="SKU関連"/>
+    <x:hyperlink ref="A6" location="'商品画像'!A1" display="商品画像"/>
+    <x:hyperlink ref="A7" location="'商品分類'!A1" display="商品分類"/>
+    <x:hyperlink ref="A8" location="'商品タグ'!A1" display="商品タグ"/>
+    <x:hyperlink ref="A9" location="'タグ関連'!A1" display="タグ関連"/>
+    <x:hyperlink ref="A10" location="'関連商品'!A1" display="関連商品"/>
+    <x:hyperlink ref="A11" location="'関連ページ'!A1" display="関連ページ"/>
+    <x:hyperlink ref="A12" location="'サイト設定'!A1" display="サイト設定"/>
+    <x:hyperlink ref="A13" location="'サイトパーツ'!A1" display="サイトパーツ"/>
+    <x:hyperlink ref="A14" location="'サイトページ'!A1" display="サイトページ"/>
+    <x:hyperlink ref="A15" location="'サイトページ種別'!A1" display="サイトページ種別"/>
+    <x:hyperlink ref="A16" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
+    <x:hyperlink ref="A17" location="'バナー'!A1" display="バナー"/>
+    <x:hyperlink ref="A18" location="'バナー種別'!A1" display="バナー種別"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId21"/>
+    <x:tablePart r:id="rId22"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1570,12 +1590,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>125</x:v>
+        <x:v>118</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>119</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1600,10 +1620,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1615,13 +1635,13 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>127</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>121</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s">
         <x:v>11</x:v>
@@ -1630,10 +1650,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -1643,35 +1663,163 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
+    <x:hyperlink ref="A13" location="'商品ページ'!A1" display="商品ページ"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="2">
+    <x:tablePart r:id="rId39"/>
+    <x:tablePart r:id="rId40"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F13"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>122</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="1" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s"/>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
+      <x:c r="E7" s="3" t="s"/>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="A11" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="4" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="4" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>126</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1684,13 +1832,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId38"/>
-    <x:tablePart r:id="rId39"/>
+    <x:tablePart r:id="rId41"/>
+    <x:tablePart r:id="rId42"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1710,12 +1858,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1740,10 +1888,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>130</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1755,13 +1903,13 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s">
@@ -1770,13 +1918,13 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
@@ -1785,13 +1933,13 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1800,13 +1948,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId40"/>
-    <x:tablePart r:id="rId41"/>
+    <x:tablePart r:id="rId43"/>
+    <x:tablePart r:id="rId44"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1826,12 +1974,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>135</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1856,10 +2004,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1871,23 +2019,23 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>137</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -1897,10 +2045,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>26</x:v>
@@ -1910,13 +2058,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -1925,13 +2073,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -1940,13 +2088,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -1955,13 +2103,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId42"/>
-    <x:tablePart r:id="rId43"/>
+    <x:tablePart r:id="rId45"/>
+    <x:tablePart r:id="rId46"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1981,12 +2129,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>126</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2011,13 +2159,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
         <x:v>11</x:v>
@@ -2026,10 +2174,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
@@ -2039,10 +2187,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -2052,26 +2200,26 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -2080,13 +2228,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -2101,7 +2249,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s"/>
       <x:c r="E11" s="3" t="s">
@@ -2110,13 +2258,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s"/>
       <x:c r="E12" s="3" t="s">
@@ -2125,13 +2273,13 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s">
@@ -2140,10 +2288,10 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
         <x:v>23</x:v>
@@ -2155,13 +2303,13 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s"/>
       <x:c r="E15" s="3" t="s">
@@ -2170,10 +2318,10 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>153</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>29</x:v>
@@ -2185,10 +2333,10 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
         <x:v>29</x:v>
@@ -2198,10 +2346,10 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
         <x:v>29</x:v>
@@ -2213,10 +2361,10 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>34</x:v>
@@ -2226,35 +2374,29 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="4" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C24" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="1:6">
       <x:c r="A25" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="B25" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C25" s="1" t="s">
-        <x:v>158</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2267,13 +2409,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId44"/>
-    <x:tablePart r:id="rId45"/>
+    <x:tablePart r:id="rId47"/>
+    <x:tablePart r:id="rId48"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2293,12 +2435,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>150</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>155</x:v>
+        <x:v>151</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2323,10 +2465,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -2351,10 +2493,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>159</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>160</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>14</x:v>
@@ -2366,10 +2508,10 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>161</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>162</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
         <x:v>14</x:v>
@@ -2381,13 +2523,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2396,13 +2538,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId46"/>
-    <x:tablePart r:id="rId47"/>
+    <x:tablePart r:id="rId49"/>
+    <x:tablePart r:id="rId50"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2422,12 +2564,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>152</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2452,10 +2594,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>26</x:v>
@@ -2480,13 +2622,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2495,13 +2637,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId48"/>
-    <x:tablePart r:id="rId49"/>
+    <x:tablePart r:id="rId51"/>
+    <x:tablePart r:id="rId52"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2521,12 +2663,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>163</x:v>
+        <x:v>158</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>159</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2551,10 +2693,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -2566,10 +2708,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
@@ -2579,13 +2721,13 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
@@ -2594,13 +2736,13 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>166</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>167</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s">
@@ -2609,13 +2751,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -2624,13 +2766,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>171</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -2639,13 +2781,13 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s"/>
       <x:c r="E11" s="3" t="s">
@@ -2654,10 +2796,10 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
         <x:v>26</x:v>
@@ -2667,10 +2809,10 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
         <x:v>29</x:v>
@@ -2680,10 +2822,10 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
         <x:v>29</x:v>
@@ -2695,10 +2837,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
         <x:v>34</x:v>
@@ -2708,24 +2850,21 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="4" t="s">
-        <x:v>172</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>173</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2737,13 +2876,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId50"/>
-    <x:tablePart r:id="rId51"/>
+    <x:tablePart r:id="rId53"/>
+    <x:tablePart r:id="rId54"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2763,12 +2902,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>172</x:v>
+        <x:v>167</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>173</x:v>
+        <x:v>168</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2793,10 +2932,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -2814,20 +2953,20 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -2836,8 +2975,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId52"/>
-    <x:tablePart r:id="rId53"/>
+    <x:tablePart r:id="rId55"/>
+    <x:tablePart r:id="rId56"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -2847,7 +2986,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F22"/>
+  <x:dimension ref="A1:F18"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3030,75 +3169,15 @@
       <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s"/>
     </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="1" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s"/>
-      <x:c r="E16" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="1" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3107,13 +3186,159 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId22"/>
     <x:tablePart r:id="rId23"/>
+    <x:tablePart r:id="rId24"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F13"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="1" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="A7" s="1" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D7" s="3" t="s"/>
+      <x:c r="E7" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="1" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="1" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="2">
+    <x:tablePart r:id="rId25"/>
+    <x:tablePart r:id="rId26"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3133,12 +3358,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -3163,10 +3388,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -3178,10 +3403,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
@@ -3193,13 +3418,13 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>54</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
@@ -3208,13 +3433,13 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s">
@@ -3223,13 +3448,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -3238,13 +3463,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -3253,10 +3478,10 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>23</x:v>
@@ -3268,13 +3493,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s"/>
       <x:c r="E12" s="3" t="s">
@@ -3283,13 +3508,13 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s">
@@ -3298,13 +3523,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s">
@@ -3313,10 +3538,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
         <x:v>26</x:v>
@@ -3328,10 +3553,10 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
         <x:v>26</x:v>
@@ -3343,13 +3568,13 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s"/>
       <x:c r="E17" s="3" t="s">
@@ -3358,10 +3583,10 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>76</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
         <x:v>10</x:v>
@@ -3373,10 +3598,10 @@
     </x:row>
     <x:row r="19" spans="1:6">
       <x:c r="A19" s="1" t="s">
-        <x:v>77</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B19" s="1" t="s">
-        <x:v>78</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C19" s="1" t="s">
         <x:v>34</x:v>
@@ -3388,10 +3613,10 @@
     </x:row>
     <x:row r="20" spans="1:6">
       <x:c r="A20" s="1" t="s">
-        <x:v>79</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B20" s="1" t="s">
-        <x:v>80</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C20" s="1" t="s">
         <x:v>29</x:v>
@@ -3401,10 +3626,10 @@
     </x:row>
     <x:row r="21" spans="1:6">
       <x:c r="A21" s="1" t="s">
-        <x:v>81</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B21" s="1" t="s">
-        <x:v>82</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C21" s="1" t="s">
         <x:v>29</x:v>
@@ -3414,10 +3639,10 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1" t="s">
-        <x:v>83</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>84</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
         <x:v>29</x:v>
@@ -3429,10 +3654,10 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
         <x:v>34</x:v>
@@ -3442,10 +3667,10 @@
     </x:row>
     <x:row r="24" spans="1:6">
       <x:c r="A24" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B24" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C24" s="1" t="s">
         <x:v>29</x:v>
@@ -3457,24 +3682,21 @@
     </x:row>
     <x:row r="28" spans="1:6">
       <x:c r="A28" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B28" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C28" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:6">
       <x:c r="A29" s="4" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B29" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="C29" s="1" t="s">
-        <x:v>90</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3486,18 +3708,18 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId24"/>
-    <x:tablePart r:id="rId25"/>
+    <x:tablePart r:id="rId27"/>
+    <x:tablePart r:id="rId28"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F12"/>
+  <x:dimension ref="A1:F13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3512,12 +3734,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>92</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>92</x:v>
+        <x:v>93</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -3542,10 +3764,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -3560,7 +3782,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
@@ -3572,10 +3794,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -3585,42 +3807,48 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
+    <x:hyperlink ref="A13" location="'商品SKU'!A1" display="商品SKU"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId26"/>
-    <x:tablePart r:id="rId27"/>
+    <x:tablePart r:id="rId29"/>
+    <x:tablePart r:id="rId30"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3670,10 +3898,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -3685,10 +3913,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>26</x:v>
@@ -3706,7 +3934,7 @@
         <x:v>101</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
@@ -3721,7 +3949,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
       <x:c r="E8" s="3" t="s">
@@ -3736,7 +3964,7 @@
         <x:v>105</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -3745,24 +3973,21 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -3774,13 +3999,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId28"/>
-    <x:tablePart r:id="rId29"/>
+    <x:tablePart r:id="rId31"/>
+    <x:tablePart r:id="rId32"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3800,12 +4025,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>54</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -3830,10 +4055,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -3858,10 +4083,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>23</x:v>
@@ -3888,13 +4113,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -3903,13 +4128,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -3924,7 +4149,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s"/>
       <x:c r="E11" s="3" t="s">
@@ -3933,13 +4158,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s"/>
       <x:c r="E12" s="3" t="s">
@@ -3948,13 +4173,13 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s">
@@ -3963,13 +4188,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s">
@@ -3978,10 +4203,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
         <x:v>23</x:v>
@@ -3993,13 +4218,13 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s"/>
       <x:c r="E16" s="3" t="s">
@@ -4008,10 +4233,10 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
         <x:v>26</x:v>
@@ -4021,10 +4246,10 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
         <x:v>34</x:v>
@@ -4034,13 +4259,13 @@
     </x:row>
     <x:row r="22" spans="1:6">
       <x:c r="A22" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B22" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C22" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4049,13 +4274,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId30"/>
-    <x:tablePart r:id="rId31"/>
+    <x:tablePart r:id="rId33"/>
+    <x:tablePart r:id="rId34"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4105,10 +4330,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -4133,10 +4358,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>35</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>23</x:v>
@@ -4163,13 +4388,13 @@
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -4178,13 +4403,13 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
       <x:c r="E10" s="3" t="s">
@@ -4199,7 +4424,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s"/>
       <x:c r="E11" s="3" t="s">
@@ -4208,13 +4433,13 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D12" s="3" t="s"/>
       <x:c r="E12" s="3" t="s">
@@ -4223,13 +4448,13 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>43</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s">
@@ -4238,13 +4463,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>55</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s">
@@ -4253,10 +4478,10 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
         <x:v>23</x:v>
@@ -4268,13 +4493,13 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s"/>
       <x:c r="E16" s="3" t="s">
@@ -4283,10 +4508,10 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B17" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C17" s="1" t="s">
         <x:v>26</x:v>
@@ -4296,10 +4521,10 @@
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>85</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>86</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
         <x:v>34</x:v>
@@ -4322,13 +4547,13 @@
     </x:row>
     <x:row r="23" spans="1:6">
       <x:c r="A23" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B23" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C23" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4337,13 +4562,13 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId32"/>
-    <x:tablePart r:id="rId33"/>
+    <x:tablePart r:id="rId35"/>
+    <x:tablePart r:id="rId36"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4393,10 +4618,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -4423,10 +4648,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
+        <x:v>96</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -4436,24 +4661,21 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>45</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>37</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
@@ -4462,9 +4684,6 @@
       </x:c>
       <x:c r="B13" s="1" t="s">
         <x:v>111</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>118</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -4477,148 +4696,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId34"/>
-    <x:tablePart r:id="rId35"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>119</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>120</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>121</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>122</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>123</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="4" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A13" location="'商品ページ'!A1" display="商品ページ"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId36"/>
     <x:tablePart r:id="rId37"/>
+    <x:tablePart r:id="rId38"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/schema.xlsx
+++ b/schema.xlsx
@@ -9,21 +9,16 @@
     <x:sheet name="目次" sheetId="2" r:id="rId2"/>
     <x:sheet name="EC商品" sheetId="3" r:id="rId3"/>
     <x:sheet name="商品SKU" sheetId="4" r:id="rId4"/>
-    <x:sheet name="商品ページ" sheetId="5" r:id="rId5"/>
-    <x:sheet name="SKU関連" sheetId="6" r:id="rId6"/>
-    <x:sheet name="商品画像" sheetId="7" r:id="rId7"/>
-    <x:sheet name="商品分類" sheetId="8" r:id="rId8"/>
-    <x:sheet name="商品タグ" sheetId="9" r:id="rId9"/>
-    <x:sheet name="タグ関連" sheetId="10" r:id="rId10"/>
-    <x:sheet name="関連商品" sheetId="11" r:id="rId11"/>
+    <x:sheet name="サイト設定" sheetId="5" r:id="rId5"/>
+    <x:sheet name="サイトパーツ" sheetId="6" r:id="rId6"/>
+    <x:sheet name="サイトページ" sheetId="7" r:id="rId7"/>
+    <x:sheet name="サイトページ種別" sheetId="8" r:id="rId8"/>
+    <x:sheet name="サイトページ優先順位" sheetId="9" r:id="rId9"/>
+    <x:sheet name="バナー" sheetId="10" r:id="rId10"/>
+    <x:sheet name="バナー種別" sheetId="11" r:id="rId11"/>
     <x:sheet name="関連ページ" sheetId="12" r:id="rId12"/>
-    <x:sheet name="サイト設定" sheetId="13" r:id="rId13"/>
-    <x:sheet name="サイトパーツ" sheetId="14" r:id="rId14"/>
-    <x:sheet name="サイトページ" sheetId="15" r:id="rId15"/>
-    <x:sheet name="サイトページ種別" sheetId="16" r:id="rId16"/>
-    <x:sheet name="サイトページ優先順位" sheetId="17" r:id="rId17"/>
-    <x:sheet name="バナー" sheetId="18" r:id="rId18"/>
-    <x:sheet name="バナー種別" sheetId="19" r:id="rId19"/>
+    <x:sheet name="商品ページ関連" sheetId="13" r:id="rId13"/>
+    <x:sheet name="検索情報" sheetId="14" r:id="rId14"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -31,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <x:si>
     <x:t>EC商品</x:t>
   </x:si>
@@ -183,10 +178,34 @@
     <x:t>URL(nvarchar(256))</x:t>
   </x:si>
   <x:si>
-    <x:t>商品ページ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductPages</x:t>
+    <x:t>サイト設定</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SiteConfigs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>キー</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConfigKey</x:t>
+  </x:si>
+  <x:si>
+    <x:t>値</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ConfigValue</x:t>
+  </x:si>
+  <x:si>
+    <x:t>メモ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Memo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイトパーツ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SiteParts</x:t>
   </x:si>
   <x:si>
     <x:t>コード</x:t>
@@ -195,13 +214,52 @@
     <x:t>Code</x:t>
   </x:si>
   <x:si>
-    <x:t>商品分類</x:t>
+    <x:t>パターン</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pattern</x:t>
+  </x:si>
+  <x:si>
+    <x:t>URLパラメータ(nvarchar(200))</x:t>
+  </x:si>
+  <x:si>
+    <x:t>表示位置</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Position</x:t>
+  </x:si>
+  <x:si>
+    <x:t>表示順</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayOrder</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HTML</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Html</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイトページ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SitePages</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ページ種別</x:t>
   </x:si>
   <x:si>
     <x:t>Kind</x:t>
   </x:si>
   <x:si>
-    <x:t>商品名</x:t>
+    <x:t>優先順位</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ページ名</x:t>
   </x:si>
   <x:si>
     <x:t>略称(nvarchar(64))</x:t>
@@ -219,6 +277,18 @@
     <x:t>Body</x:t>
   </x:si>
   <x:si>
+    <x:t>ヒーロー画像</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hero</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サムネイル</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thumbnail</x:t>
+  </x:si>
+  <x:si>
     <x:t>メタタイトル</x:t>
   </x:si>
   <x:si>
@@ -237,10 +307,145 @@
     <x:t>MetaImage</x:t>
   </x:si>
   <x:si>
-    <x:t>サムネイル</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Thumbnail</x:t>
+    <x:t>発行日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PublishDate</x:t>
+  </x:si>
+  <x:si>
+    <x:t>表示開始日時</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayStart</x:t>
+  </x:si>
+  <x:si>
+    <x:t>表示終了日時</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DisplayEnd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>発行フラグ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsPublished</x:t>
+  </x:si>
+  <x:si>
+    <x:t>一覧表示可</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IsListed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイトページ種別</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SitePageKinds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kind =&gt; Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サイトページ優先順位</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SitePagePriorities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Priority =&gt; Priority</x:t>
+  </x:si>
+  <x:si>
+    <x:t>レイアウト</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Layout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>パーシャル</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Partial</x:t>
+  </x:si>
+  <x:si>
+    <x:t>バナー</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banners</x:t>
+  </x:si>
+  <x:si>
+    <x:t>種別</x:t>
+  </x:si>
+  <x:si>
+    <x:t>サブタイトル</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Subtitle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>リンクテキスト</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LinkText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>リンクURL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LinkUrl</x:t>
+  </x:si>
+  <x:si>
+    <x:t>バナー種別</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BannerKinds</x:t>
+  </x:si>
+  <x:si>
+    <x:t>関連ページ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PageRelations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>掲載元コード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PageCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>掲載先コード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RelateCode</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PageCode =&gt; Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RelateCode =&gt; Code</x:t>
+  </x:si>
+  <x:si>
+    <x:t>商品ページ関連</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ProductRelations</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ページコード</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ExternalId1 =&gt; ExternalId1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>検索情報</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Search</x:t>
+  </x:si>
+  <x:si>
+    <x:t>レコメンド指数</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RecommendIndex</x:t>
   </x:si>
   <x:si>
     <x:t>ランキング指数</x:t>
@@ -249,12 +454,6 @@
     <x:t>RankingIndex</x:t>
   </x:si>
   <x:si>
-    <x:t>おすすめ指数</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RecommendIndex</x:t>
-  </x:si>
-  <x:si>
     <x:t>価格指数</x:t>
   </x:si>
   <x:si>
@@ -264,7 +463,7 @@
     <x:t>金額(money)</x:t>
   </x:si>
   <x:si>
-    <x:t>価格代表商品ID</x:t>
+    <x:t>代表商品ID</x:t>
   </x:si>
   <x:si>
     <x:t>PriceProductId</x:t>
@@ -274,270 +473,6 @@
   </x:si>
   <x:si>
     <x:t>HasMultiplePrice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>発売日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ReleaseDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>表示開始日時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayStart</x:t>
-  </x:si>
-  <x:si>
-    <x:t>表示終了日時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayEnd</x:t>
-  </x:si>
-  <x:si>
-    <x:t>発行フラグ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsPublished</x:t>
-  </x:si>
-  <x:si>
-    <x:t>最終更新日時</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LastModified</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductKinds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SKU関連</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductRelations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductPageCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductExternalId1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>表示順</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayOrder</x:t>
-  </x:si>
-  <x:si>
-    <x:t>商品画像</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductImages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>代替名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Alt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>大画像URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LargeUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>小画像URL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SmallUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>グループ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GroupCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ヒーロー画像</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hero</x:t>
-  </x:si>
-  <x:si>
-    <x:t>商品タグ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductTags</x:t>
-  </x:si>
-  <x:si>
-    <x:t>検索可能フラグ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IsSearchable</x:t>
-  </x:si>
-  <x:si>
-    <x:t>タグ関連</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductTagRelations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>タグ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductTagCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関連商品</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ProductPageRelations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関連商品ページ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RelateCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>関連ページ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageRelations</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイトページ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageCode</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePages</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイト設定</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SiteConfigs</x:t>
-  </x:si>
-  <x:si>
-    <x:t>キー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConfigKey</x:t>
-  </x:si>
-  <x:si>
-    <x:t>値</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ConfigValue</x:t>
-  </x:si>
-  <x:si>
-    <x:t>メモ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Memo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイトパーツ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SiteParts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>パターン</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pattern</x:t>
-  </x:si>
-  <x:si>
-    <x:t>URLパラメータ(nvarchar(200))</x:t>
-  </x:si>
-  <x:si>
-    <x:t>表示位置</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Position</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HTML</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Html</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ページ種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>優先順位</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Priority</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ページ名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>発行日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PublishDate</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイトページ種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePageKinds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイトページ優先順位</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SitePagePriorities</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ルート名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RouteName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>レイアウト</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Layout</x:t>
-  </x:si>
-  <x:si>
-    <x:t>バナー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Banners</x:t>
-  </x:si>
-  <x:si>
-    <x:t>種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サブタイトル</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Subtitle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>リンクテキスト</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LinkText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>リンクURL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LinkUrl</x:t>
-  </x:si>
-  <x:si>
-    <x:t>バナー種別</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BannerKinds</x:t>
   </x:si>
   <x:si>
     <x:t>テーブル名</x:t>
@@ -658,8 +593,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C19" totalsRowShown="0">
-  <x:autoFilter ref="A1:C19"/>
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C14" totalsRowShown="0">
+  <x:autoFilter ref="A1:C14"/>
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="テーブル名"/>
     <x:tableColumn id="2" name="スキーマ名"/>
@@ -670,7 +605,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15" displayName="Table15" ref="A4:F10" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table15" displayName="Table15" ref="A4:F22" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -684,7 +619,7 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table24" displayName="Table24" ref="A13:C15" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table24" displayName="Table24" ref="A25:C28" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -695,7 +630,7 @@
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16" displayName="Table16" ref="A4:F19" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table16" displayName="Table16" ref="A4:F9" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -709,7 +644,7 @@
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table25" displayName="Table25" ref="A22:C23" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table25" displayName="Table25" ref="A12:C13" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -720,7 +655,7 @@
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table17" displayName="Table17" ref="A4:F20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table17" displayName="Table17" ref="A4:F7" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -734,7 +669,7 @@
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table26" displayName="Table26" ref="A23:C24" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table26" displayName="Table26" ref="A10:C11" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -745,7 +680,7 @@
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table18" displayName="Table18" ref="A4:F8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table18" displayName="Table18" ref="A4:F16" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -759,7 +694,7 @@
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table27" displayName="Table27" ref="A11:C14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table27" displayName="Table27" ref="A19:C21" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -770,7 +705,7 @@
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A4:F8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table19" displayName="Table19" ref="A4:F7" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -784,7 +719,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A11:C14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table28" displayName="Table28" ref="A10:C11" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -848,7 +783,7 @@
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table210" displayName="Table210" ref="A11:C12" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="23" name="Table210" displayName="Table210" ref="A11:C14" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -883,133 +818,8 @@
 </x:table>
 </file>
 
-<file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="26" name="Table113" displayName="Table113" ref="A4:F20" totalsRowShown="0">
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="フィールド名"/>
-    <x:tableColumn id="2" name="カラム名"/>
-    <x:tableColumn id="3" name="型"/>
-    <x:tableColumn id="4" name="主キー"/>
-    <x:tableColumn id="5" name="NULL可"/>
-    <x:tableColumn id="6" name="備考"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="27" name="Table212" displayName="Table212" ref="A23:C26" totalsRowShown="0">
-  <x:tableColumns count="3">
-    <x:tableColumn id="1" name="関連テーブル名"/>
-    <x:tableColumn id="2" name="関連スキーマ名"/>
-    <x:tableColumn id="3" name="関連カラム"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="28" name="Table114" displayName="Table114" ref="A4:F9" totalsRowShown="0">
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="フィールド名"/>
-    <x:tableColumn id="2" name="カラム名"/>
-    <x:tableColumn id="3" name="型"/>
-    <x:tableColumn id="4" name="主キー"/>
-    <x:tableColumn id="5" name="NULL可"/>
-    <x:tableColumn id="6" name="備考"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="29" name="Table213" displayName="Table213" ref="A12:C13" totalsRowShown="0">
-  <x:tableColumns count="3">
-    <x:tableColumn id="1" name="関連テーブル名"/>
-    <x:tableColumn id="2" name="関連スキーマ名"/>
-    <x:tableColumn id="3" name="関連カラム"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table2" displayName="Table2" ref="A18:C19" totalsRowShown="0">
-  <x:tableColumns count="3">
-    <x:tableColumn id="1" name="関連テーブル名"/>
-    <x:tableColumn id="2" name="関連スキーマ名"/>
-    <x:tableColumn id="3" name="関連カラム"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="30" name="Table115" displayName="Table115" ref="A4:F7" totalsRowShown="0">
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="フィールド名"/>
-    <x:tableColumn id="2" name="カラム名"/>
-    <x:tableColumn id="3" name="型"/>
-    <x:tableColumn id="4" name="主キー"/>
-    <x:tableColumn id="5" name="NULL可"/>
-    <x:tableColumn id="6" name="備考"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="31" name="Table214" displayName="Table214" ref="A10:C11" totalsRowShown="0">
-  <x:tableColumns count="3">
-    <x:tableColumn id="1" name="関連テーブル名"/>
-    <x:tableColumn id="2" name="関連スキーマ名"/>
-    <x:tableColumn id="3" name="関連カラム"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="32" name="Table116" displayName="Table116" ref="A4:F16" totalsRowShown="0">
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="フィールド名"/>
-    <x:tableColumn id="2" name="カラム名"/>
-    <x:tableColumn id="3" name="型"/>
-    <x:tableColumn id="4" name="主キー"/>
-    <x:tableColumn id="5" name="NULL可"/>
-    <x:tableColumn id="6" name="備考"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="33" name="Table215" displayName="Table215" ref="A19:C21" totalsRowShown="0">
-  <x:tableColumns count="3">
-    <x:tableColumn id="1" name="関連テーブル名"/>
-    <x:tableColumn id="2" name="関連スキーマ名"/>
-    <x:tableColumn id="3" name="関連カラム"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="34" name="Table117" displayName="Table117" ref="A4:F7" totalsRowShown="0">
-  <x:tableColumns count="6">
-    <x:tableColumn id="1" name="フィールド名"/>
-    <x:tableColumn id="2" name="カラム名"/>
-    <x:tableColumn id="3" name="型"/>
-    <x:tableColumn id="4" name="主キー"/>
-    <x:tableColumn id="5" name="NULL可"/>
-    <x:tableColumn id="6" name="備考"/>
-  </x:tableColumns>
-  <x:tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</x:table>
-</file>
-
-<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="35" name="Table216" displayName="Table216" ref="A10:C11" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1045,7 +855,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13" displayName="Table13" ref="A4:F25" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table13" displayName="Table13" ref="A4:F8" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -1059,7 +869,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table22" displayName="Table22" ref="A28:C30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table22" displayName="Table22" ref="A11:C12" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1070,7 +880,7 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table14" displayName="Table14" ref="A4:F8" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table14" displayName="Table14" ref="A4:F11" totalsRowShown="0">
   <x:tableColumns count="6">
     <x:tableColumn id="1" name="フィールド名"/>
     <x:tableColumn id="2" name="カラム名"/>
@@ -1084,7 +894,7 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table23" displayName="Table23" ref="A11:C14" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table23" displayName="Table23" ref="A14:C15" totalsRowShown="0">
   <x:tableColumns count="3">
     <x:tableColumn id="1" name="関連テーブル名"/>
     <x:tableColumn id="2" name="関連スキーマ名"/>
@@ -1382,7 +1192,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:C18"/>
+  <x:dimension ref="A1:C13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1395,10 +1205,10 @@
   <x:sheetData>
     <x:row r="1" spans="1:3">
       <x:c r="A1" s="1" t="s">
-        <x:v>169</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B1" s="1" t="s">
-        <x:v>170</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="C1" s="1" t="s">
         <x:v>7</x:v>
@@ -1430,142 +1240,97 @@
     </x:row>
     <x:row r="5" spans="1:3">
       <x:c r="A5" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>93</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:3">
       <x:c r="A6" s="4" t="s">
-        <x:v>98</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:3">
       <x:c r="A7" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:3">
       <x:c r="A8" s="4" t="s">
-        <x:v>110</x:v>
+        <x:v>106</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:3">
       <x:c r="A9" s="4" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
         <x:v>114</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>115</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:3">
       <x:c r="A10" s="4" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:3">
       <x:c r="A11" s="4" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:3">
       <x:c r="A12" s="4" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:3">
       <x:c r="A13" s="4" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>136</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:3">
-      <x:c r="A14" s="4" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:3">
-      <x:c r="A15" s="4" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:3">
-      <x:c r="A16" s="4" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:3">
-      <x:c r="A17" s="4" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:3">
-      <x:c r="A18" s="4" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>168</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
     <x:hyperlink ref="A2" location="'EC商品'!A1" display="EC商品"/>
     <x:hyperlink ref="A3" location="'商品SKU'!A1" display="商品SKU"/>
-    <x:hyperlink ref="A4" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A5" location="'SKU関連'!A1" display="SKU関連"/>
-    <x:hyperlink ref="A6" location="'商品画像'!A1" display="商品画像"/>
-    <x:hyperlink ref="A7" location="'商品分類'!A1" display="商品分類"/>
-    <x:hyperlink ref="A8" location="'商品タグ'!A1" display="商品タグ"/>
-    <x:hyperlink ref="A9" location="'タグ関連'!A1" display="タグ関連"/>
-    <x:hyperlink ref="A10" location="'関連商品'!A1" display="関連商品"/>
+    <x:hyperlink ref="A4" location="'サイト設定'!A1" display="サイト設定"/>
+    <x:hyperlink ref="A5" location="'サイトパーツ'!A1" display="サイトパーツ"/>
+    <x:hyperlink ref="A6" location="'サイトページ'!A1" display="サイトページ"/>
+    <x:hyperlink ref="A7" location="'サイトページ種別'!A1" display="サイトページ種別"/>
+    <x:hyperlink ref="A8" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
+    <x:hyperlink ref="A9" location="'バナー'!A1" display="バナー"/>
+    <x:hyperlink ref="A10" location="'バナー種別'!A1" display="バナー種別"/>
     <x:hyperlink ref="A11" location="'関連ページ'!A1" display="関連ページ"/>
-    <x:hyperlink ref="A12" location="'サイト設定'!A1" display="サイト設定"/>
-    <x:hyperlink ref="A13" location="'サイトパーツ'!A1" display="サイトパーツ"/>
-    <x:hyperlink ref="A14" location="'サイトページ'!A1" display="サイトページ"/>
-    <x:hyperlink ref="A15" location="'サイトページ種別'!A1" display="サイトページ種別"/>
-    <x:hyperlink ref="A16" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
-    <x:hyperlink ref="A17" location="'バナー'!A1" display="バナー"/>
-    <x:hyperlink ref="A18" location="'バナー種別'!A1" display="バナー種別"/>
+    <x:hyperlink ref="A12" location="'商品ページ関連'!A1" display="商品ページ関連"/>
+    <x:hyperlink ref="A13" location="'検索情報'!A1" display="検索情報"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="1">
-    <x:tablePart r:id="rId22"/>
+    <x:tablePart r:id="rId17"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1575,7 +1340,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1590,12 +1355,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>122</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>119</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1620,10 +1385,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -1635,71 +1400,36 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>120</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B10" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="C10" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A13" location="'商品ページ'!A1" display="商品ページ"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId39"/>
-    <x:tablePart r:id="rId40"/>
+    <x:tablePart r:id="rId34"/>
+    <x:tablePart r:id="rId35"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1724,12 +1454,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>123</x:v>
+        <x:v>125</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1754,13 +1484,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
         <x:v>11</x:v>
@@ -1769,10 +1499,10 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>125</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>49</x:v>
@@ -1784,10 +1514,10 @@
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
         <x:v>26</x:v>
@@ -1808,23 +1538,29 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="4" t="s">
-        <x:v>124</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>131</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
+    <x:hyperlink ref="A12" location="'サイトページ'!A1" display="サイトページ"/>
     <x:hyperlink ref="A13" location="'サイトページ'!A1" display="サイトページ"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -1832,8 +1568,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId41"/>
-    <x:tablePart r:id="rId42"/>
+    <x:tablePart r:id="rId36"/>
+    <x:tablePart r:id="rId37"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1843,7 +1579,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F11"/>
+  <x:dimension ref="A1:F13"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1858,12 +1594,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>132</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>128</x:v>
+        <x:v>133</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -1888,13 +1624,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>130</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
         <x:v>11</x:v>
@@ -1903,33 +1639,31 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>132</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E7" s="3" t="s"/>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
@@ -1942,14 +1676,40 @@
         <x:v>37</x:v>
       </x:c>
     </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="4" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>130</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>135</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A12" location="'サイトページ'!A1" display="サイトページ"/>
+    <x:hyperlink ref="A13" location="'商品SKU'!A1" display="商品SKU"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId43"/>
-    <x:tablePart r:id="rId44"/>
+    <x:tablePart r:id="rId38"/>
+    <x:tablePart r:id="rId39"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -1974,12 +1734,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>136</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -2004,10 +1764,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>127</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -2019,16 +1779,18 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
@@ -2038,33 +1800,37 @@
         <x:v>141</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
+      <x:c r="E7" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
@@ -2073,18 +1839,16 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>134</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
-        <x:v>42</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E10" s="3" t="s"/>
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
@@ -2103,880 +1867,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId45"/>
-    <x:tablePart r:id="rId46"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F25"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>126</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="1" t="s">
-        <x:v>147</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s"/>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="1" t="s">
-        <x:v>148</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s"/>
-      <x:c r="E16" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s"/>
-      <x:c r="E19" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="A24" s="4" t="s">
-        <x:v>150</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:6">
-      <x:c r="A25" s="4" t="s">
-        <x:v>152</x:v>
-      </x:c>
-      <x:c r="B25" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A24" location="'サイトページ種別'!A1" display="サイトページ種別"/>
-    <x:hyperlink ref="A25" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId47"/>
-    <x:tablePart r:id="rId48"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F12"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>151</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>155</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="1" t="s">
-        <x:v>156</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>157</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId49"/>
-    <x:tablePart r:id="rId50"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>152</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>153</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>145</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>146</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId51"/>
-    <x:tablePart r:id="rId52"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F20"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>159</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>160</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="1" t="s">
-        <x:v>161</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>162</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="1" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>164</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>166</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s"/>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s"/>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="4" t="s">
-        <x:v>167</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A20" location="'バナー種別'!A1" display="バナー種別"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId53"/>
-    <x:tablePart r:id="rId54"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F10"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>167</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>168</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId55"/>
-    <x:tablePart r:id="rId56"/>
+    <x:tablePart r:id="rId40"/>
+    <x:tablePart r:id="rId41"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -3186,8 +2078,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId23"/>
-    <x:tablePart r:id="rId24"/>
+    <x:tablePart r:id="rId18"/>
+    <x:tablePart r:id="rId19"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -3332,8 +2224,8 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId25"/>
-    <x:tablePart r:id="rId26"/>
+    <x:tablePart r:id="rId20"/>
+    <x:tablePart r:id="rId21"/>
   </x:tableParts>
 </x:worksheet>
 </file>
@@ -3343,7 +2235,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F29"/>
+  <x:dimension ref="A1:F11"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -3409,7 +2301,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s">
@@ -3421,434 +2313,40 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:6">
-      <x:c r="A8" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="1" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="1" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s"/>
-      <x:c r="E16" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="1" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="1" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s"/>
-      <x:c r="E19" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:6">
-      <x:c r="A20" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="B20" s="1" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C20" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D20" s="3" t="s"/>
-      <x:c r="E20" s="3" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:6">
-      <x:c r="A21" s="1" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="B21" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="C21" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D21" s="3" t="s"/>
-      <x:c r="E21" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="1" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="B22" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="C22" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D22" s="3" t="s"/>
-      <x:c r="E22" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D23" s="3" t="s"/>
-      <x:c r="E23" s="3" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:6">
-      <x:c r="A24" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="B24" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="C24" s="1" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="D24" s="3" t="s"/>
-      <x:c r="E24" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:6">
-      <x:c r="A28" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B28" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C28" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="29" spans="1:6">
-      <x:c r="A29" s="4" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B29" s="1" t="s">
-        <x:v>91</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A29" location="'商品分類'!A1" display="商品分類"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId27"/>
-    <x:tablePart r:id="rId28"/>
+    <x:tablePart r:id="rId22"/>
+    <x:tablePart r:id="rId23"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:sheetPr>
-    <x:outlinePr summaryBelow="1" summaryRight="1"/>
-  </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
-  <x:sheetViews>
-    <x:sheetView workbookViewId="0"/>
-  </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:cols>
-    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
-    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
-    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
-    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
-    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
-  </x:cols>
-  <x:sheetData>
-    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
-      <x:c r="A1" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:6">
-      <x:c r="A2" s="1" t="s">
-        <x:v>93</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:6">
-      <x:c r="A4" s="1" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="E4" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="F4" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:6">
-      <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E5" s="3" t="s"/>
-    </x:row>
-    <x:row r="6" spans="1:6">
-      <x:c r="A6" s="1" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="E6" s="3" t="s"/>
-    </x:row>
-    <x:row r="7" spans="1:6">
-      <x:c r="A7" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="4" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>39</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A13" location="'商品SKU'!A1" display="商品SKU"/>
-  </x:hyperlinks>
-  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
-  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
-  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
-  <x:headerFooter/>
-  <x:tableParts count="2">
-    <x:tablePart r:id="rId29"/>
-    <x:tablePart r:id="rId30"/>
-  </x:tableParts>
-</x:worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3868,12 +2366,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>98</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>99</x:v>
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -3898,10 +2396,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -3913,104 +2411,102 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>100</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>101</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>102</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>103</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>104</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>105</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D9" s="3" t="s"/>
       <x:c r="E9" s="3" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="1" t="s">
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s">
+      <x:c r="B14" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C13" s="1" t="s">
+      <x:c r="C14" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
   </x:sheetData>
-  <x:hyperlinks>
-    <x:hyperlink ref="A14" location="'商品ページ'!A1" display="商品ページ"/>
-  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId31"/>
-    <x:tablePart r:id="rId32"/>
+    <x:tablePart r:id="rId24"/>
+    <x:tablePart r:id="rId25"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F22"/>
+  <x:dimension ref="A1:F27"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4025,12 +2521,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>71</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>91</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -4055,13 +2551,13 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D5" s="3" t="s">
         <x:v>11</x:v>
@@ -4070,53 +2566,49 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E7" s="3" t="s"/>
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E8" s="3" t="s"/>
     </x:row>
     <x:row r="9" spans="1:6">
       <x:c r="A9" s="1" t="s">
-        <x:v>58</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B9" s="1" t="s">
-        <x:v>59</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C9" s="1" t="s">
         <x:v>42</x:v>
@@ -4128,10 +2620,10 @@
     </x:row>
     <x:row r="10" spans="1:6">
       <x:c r="A10" s="1" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C10" s="1" t="s">
         <x:v>42</x:v>
@@ -4143,10 +2635,10 @@
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
-        <x:v>108</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="B11" s="1" t="s">
-        <x:v>109</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
         <x:v>49</x:v>
@@ -4158,10 +2650,10 @@
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
         <x:v>49</x:v>
@@ -4173,13 +2665,13 @@
     </x:row>
     <x:row r="13" spans="1:6">
       <x:c r="A13" s="1" t="s">
-        <x:v>47</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="B13" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="C13" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="D13" s="3" t="s"/>
       <x:c r="E13" s="3" t="s">
@@ -4188,13 +2680,13 @@
     </x:row>
     <x:row r="14" spans="1:6">
       <x:c r="A14" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="B14" s="1" t="s">
-        <x:v>63</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="C14" s="1" t="s">
-        <x:v>57</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D14" s="3" t="s"/>
       <x:c r="E14" s="3" t="s">
@@ -4203,13 +2695,13 @@
     </x:row>
     <x:row r="15" spans="1:6">
       <x:c r="A15" s="1" t="s">
-        <x:v>64</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="B15" s="1" t="s">
-        <x:v>65</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C15" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="D15" s="3" t="s"/>
       <x:c r="E15" s="3" t="s">
@@ -4218,13 +2710,13 @@
     </x:row>
     <x:row r="16" spans="1:6">
       <x:c r="A16" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="B16" s="1" t="s">
-        <x:v>67</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="C16" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D16" s="3" t="s"/>
       <x:c r="E16" s="3" t="s">
@@ -4233,59 +2725,126 @@
     </x:row>
     <x:row r="17" spans="1:6">
       <x:c r="A17" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B17" s="1" t="s">
         <x:v>96</x:v>
       </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
       <x:c r="C17" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D17" s="3" t="s"/>
       <x:c r="E17" s="3" t="s"/>
     </x:row>
     <x:row r="18" spans="1:6">
       <x:c r="A18" s="1" t="s">
-        <x:v>87</x:v>
+        <x:v>97</x:v>
       </x:c>
       <x:c r="B18" s="1" t="s">
-        <x:v>88</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="C18" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D18" s="3" t="s"/>
+      <x:c r="E18" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B19" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C19" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D19" s="3" t="s"/>
+      <x:c r="E19" s="3" t="s"/>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="3" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:6">
-      <x:c r="A22" s="1" t="s">
+      <x:c r="D20" s="3" t="s"/>
+      <x:c r="E20" s="3" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="A21" s="1" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B21" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C21" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D21" s="3" t="s"/>
+      <x:c r="E21" s="3" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B22" s="1" t="s">
+      <x:c r="B25" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C22" s="1" t="s">
+      <x:c r="C25" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="4" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="B26" s="1" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="C26" s="1" t="s">
+        <x:v>105</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="4" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B27" s="1" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C27" s="1" t="s">
+        <x:v>108</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A26" location="'サイトページ種別'!A1" display="サイトページ種別"/>
+    <x:hyperlink ref="A27" location="'サイトページ優先順位'!A1" display="サイトページ優先順位"/>
+  </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId33"/>
-    <x:tablePart r:id="rId34"/>
+    <x:tablePart r:id="rId26"/>
+    <x:tablePart r:id="rId27"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F23"/>
+  <x:dimension ref="A1:F12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4300,12 +2859,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>110</x:v>
+        <x:v>103</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>111</x:v>
+        <x:v>104</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -4330,10 +2889,10 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -4351,20 +2910,20 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>109</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>41</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
       <x:c r="E7" s="3" t="s">
@@ -4373,186 +2932,25 @@
     </x:row>
     <x:row r="8" spans="1:6">
       <x:c r="A8" s="1" t="s">
-        <x:v>106</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="B8" s="1" t="s">
-        <x:v>107</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="C8" s="1" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D8" s="3" t="s"/>
-      <x:c r="E8" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:6">
-      <x:c r="A9" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D9" s="3" t="s"/>
-      <x:c r="E9" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:6">
-      <x:c r="A10" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="D10" s="3" t="s"/>
-      <x:c r="E10" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:6">
-      <x:c r="A11" s="1" t="s">
-        <x:v>108</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D11" s="3" t="s"/>
-      <x:c r="E11" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="E8" s="3" t="s"/>
     </x:row>
     <x:row r="12" spans="1:6">
       <x:c r="A12" s="1" t="s">
-        <x:v>68</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="B12" s="1" t="s">
-        <x:v>69</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C12" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D12" s="3" t="s"/>
-      <x:c r="E12" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="1" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="C13" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D13" s="3" t="s"/>
-      <x:c r="E13" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:6">
-      <x:c r="A14" s="1" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B14" s="1" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="C14" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D14" s="3" t="s"/>
-      <x:c r="E14" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:6">
-      <x:c r="A15" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B15" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C15" s="1" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D15" s="3" t="s"/>
-      <x:c r="E15" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:6">
-      <x:c r="A16" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B16" s="1" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C16" s="1" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="D16" s="3" t="s"/>
-      <x:c r="E16" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:6">
-      <x:c r="A17" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="B17" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="C17" s="1" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="D17" s="3" t="s"/>
-      <x:c r="E17" s="3" t="s"/>
-    </x:row>
-    <x:row r="18" spans="1:6">
-      <x:c r="A18" s="1" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="B18" s="1" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C18" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D18" s="3" t="s"/>
-      <x:c r="E18" s="3" t="s"/>
-    </x:row>
-    <x:row r="19" spans="1:6">
-      <x:c r="A19" s="1" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="B19" s="1" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C19" s="1" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="D19" s="3" t="s"/>
-      <x:c r="E19" s="3" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:6">
-      <x:c r="A23" s="1" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B23" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C23" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
@@ -4562,18 +2960,18 @@
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId35"/>
-    <x:tablePart r:id="rId36"/>
+    <x:tablePart r:id="rId28"/>
+    <x:tablePart r:id="rId29"/>
   </x:tableParts>
 </x:worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F13"/>
+  <x:dimension ref="A1:F10"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -4588,12 +2986,12 @@
   <x:sheetData>
     <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
       <x:c r="A1" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>106</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:6">
       <x:c r="A2" s="1" t="s">
-        <x:v>115</x:v>
+        <x:v>107</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:6">
@@ -4618,10 +3016,109 @@
     </x:row>
     <x:row r="5" spans="1:6">
       <x:c r="A5" s="1" t="s">
-        <x:v>50</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="B5" s="1" t="s">
-        <x:v>94</x:v>
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E5" s="3" t="s"/>
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="A6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s"/>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="2">
+    <x:tablePart r:id="rId30"/>
+    <x:tablePart r:id="rId31"/>
+  </x:tableParts>
+</x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:F20"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15"/>
+  <x:cols>
+    <x:col min="7" max="16384" width="9.140625" style="1" customWidth="1"/>
+    <x:col min="1" max="2" width="25.710625" style="1" customWidth="1"/>
+    <x:col min="3" max="3" width="35.710625" style="1" customWidth="1"/>
+    <x:col min="4" max="5" width="10.710625" style="1" customWidth="1"/>
+    <x:col min="6" max="6" width="60.710625" style="1" customWidth="1"/>
+  </x:cols>
+  <x:sheetData>
+    <x:row r="1" spans="1:6" customFormat="1" ht="25.499997" customHeight="1">
+      <x:c r="A1" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:6">
+      <x:c r="A2" s="1" t="s">
+        <x:v>114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="A4" s="1" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E4" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F4" s="1" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="A5" s="1" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C5" s="1" t="s">
         <x:v>14</x:v>
@@ -4633,71 +3130,179 @@
     </x:row>
     <x:row r="6" spans="1:6">
       <x:c r="A6" s="1" t="s">
-        <x:v>116</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="B6" s="1" t="s">
-        <x:v>117</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C6" s="1" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s">
-        <x:v>11</x:v>
-      </x:c>
+      <x:c r="D6" s="3" t="s"/>
       <x:c r="E6" s="3" t="s"/>
     </x:row>
     <x:row r="7" spans="1:6">
       <x:c r="A7" s="1" t="s">
-        <x:v>96</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="B7" s="1" t="s">
-        <x:v>97</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C7" s="1" t="s">
-        <x:v>26</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D7" s="3" t="s"/>
-      <x:c r="E7" s="3" t="s"/>
+      <x:c r="E7" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="A8" s="1" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>117</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D8" s="3" t="s"/>
+      <x:c r="E8" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="A9" s="1" t="s">
+        <x:v>118</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="D9" s="3" t="s"/>
+      <x:c r="E9" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="A10" s="1" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D10" s="3" t="s"/>
+      <x:c r="E10" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:6">
       <x:c r="A11" s="1" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="D11" s="3" t="s"/>
+      <x:c r="E11" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="A12" s="1" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B12" s="1" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C12" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D12" s="3" t="s"/>
+      <x:c r="E12" s="3" t="s"/>
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="A13" s="1" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="B13" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="C13" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D13" s="3" t="s"/>
+      <x:c r="E13" s="3" t="s"/>
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="A14" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="B14" s="1" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="C14" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="D14" s="3" t="s"/>
+      <x:c r="E14" s="3" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="A15" s="1" t="s">
+        <x:v>99</x:v>
+      </x:c>
+      <x:c r="B15" s="1" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="C15" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D15" s="3" t="s"/>
+      <x:c r="E15" s="3" t="s"/>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="A19" s="1" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B11" s="1" t="s">
+      <x:c r="B19" s="1" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C11" s="1" t="s">
+      <x:c r="C19" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:6">
-      <x:c r="A12" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B12" s="1" t="s">
-        <x:v>51</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:6">
-      <x:c r="A13" s="4" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B13" s="1" t="s">
-        <x:v>111</x:v>
+    <x:row r="20" spans="1:6">
+      <x:c r="A20" s="4" t="s">
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B20" s="1" t="s">
+        <x:v>123</x:v>
+      </x:c>
+      <x:c r="C20" s="1" t="s">
+        <x:v>105</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="A12" location="'商品ページ'!A1" display="商品ページ"/>
-    <x:hyperlink ref="A13" location="'商品タグ'!A1" display="商品タグ"/>
+    <x:hyperlink ref="A20" location="'バナー種別'!A1" display="バナー種別"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
   <x:headerFooter/>
   <x:tableParts count="2">
-    <x:tablePart r:id="rId37"/>
-    <x:tablePart r:id="rId38"/>
+    <x:tablePart r:id="rId32"/>
+    <x:tablePart r:id="rId33"/>
   </x:tableParts>
 </x:worksheet>
 </file>
--- a/schema.xlsx
+++ b/schema.xlsx
@@ -148,25 +148,25 @@
     <x:t>ProductDetails</x:t>
   </x:si>
   <x:si>
-    <x:t>表示名</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DisplayName</x:t>
+    <x:t>商品名パート1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NamePart1</x:t>
   </x:si>
   <x:si>
     <x:t>フリーテキスト(nvarchar(MAX))</x:t>
   </x:si>
   <x:si>
-    <x:t>カラー</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Color</x:t>
-  </x:si>
-  <x:si>
-    <x:t>サイズ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Size</x:t>
+    <x:t>商品名パート2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NamePart2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>商品名パート3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NamePart3</x:t>
   </x:si>
   <x:si>
     <x:t>アイコン</x:t>

--- a/schema.xlsx
+++ b/schema.xlsx
@@ -17,7 +17,7 @@
     <x:sheet name="バナー" sheetId="10" r:id="rId10"/>
     <x:sheet name="バナー種別" sheetId="11" r:id="rId11"/>
     <x:sheet name="関連ページ" sheetId="12" r:id="rId12"/>
-    <x:sheet name="商品ページ関連" sheetId="13" r:id="rId13"/>
+    <x:sheet name="陳列商品" sheetId="13" r:id="rId13"/>
     <x:sheet name="検索情報" sheetId="14" r:id="rId14"/>
   </x:sheets>
   <x:definedNames/>
@@ -424,7 +424,7 @@
     <x:t>RelateCode =&gt; Code</x:t>
   </x:si>
   <x:si>
-    <x:t>商品ページ関連</x:t>
+    <x:t>陳列商品</x:t>
   </x:si>
   <x:si>
     <x:t>ProductRelations</x:t>
@@ -1322,7 +1322,7 @@
     <x:hyperlink ref="A9" location="'バナー'!A1" display="バナー"/>
     <x:hyperlink ref="A10" location="'バナー種別'!A1" display="バナー種別"/>
     <x:hyperlink ref="A11" location="'関連ページ'!A1" display="関連ページ"/>
-    <x:hyperlink ref="A12" location="'商品ページ関連'!A1" display="商品ページ関連"/>
+    <x:hyperlink ref="A12" location="'陳列商品'!A1" display="陳列商品"/>
     <x:hyperlink ref="A13" location="'検索情報'!A1" display="検索情報"/>
   </x:hyperlinks>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
@@ -2641,7 +2641,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="C11" s="1" t="s">
-        <x:v>49</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="D11" s="3" t="s"/>
       <x:c r="E11" s="3" t="s">
